--- a/Optimal solutions.xlsx
+++ b/Optimal solutions.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\我的程序\Rescheduling simulator\DecisionDiagram （包含原始结果文件及最新FPTAS代码）\EJOR Code, Data, Results\publish repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的程序\GitRepo\Decision-Diagrams-for-Single-Machine-Scheduling\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA810292-654F-40A0-A1C0-327FF243F60B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12936" windowHeight="6744"/>
+    <workbookView xWindow="6690" yWindow="1200" windowWidth="19200" windowHeight="10060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original data sets" sheetId="13" r:id="rId1"/>
@@ -21,18 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="741">
   <si>
     <t>50,9,1,1</t>
   </si>
@@ -496,276 +491,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100,3,9,0</t>
-  </si>
-  <si>
-    <t>sol:0,1,6,5,7,11,14,18,20,21,25,26,28,30,33,36,37,39,41,43,46,47,51,53,55,57,58,61,63,64,67,69,71,73,76,79,81,82,84,83,87,88,91,90,93,97,100,101,</t>
-  </si>
-  <si>
-    <t>100,3,9,1</t>
-  </si>
-  <si>
-    <t>sol:0,2,5,7,10,11,12,15,21,23,26,27,29,34,35,37,39,41,44,45,47,49,52,53,58,60,61,62,64,68,71,74,75,79,81,85,86,88,91,90,94,96,100,99,101,</t>
-  </si>
-  <si>
-    <t>100,3,9,2</t>
-  </si>
-  <si>
-    <t>sol:0,2,5,6,7,8,13,15,16,19,20,22,24,25,26,27,29,30,32,33,37,38,36,39,41,40,42,44,49,47,48,50,52,54,56,59,61,66,68,72,73,76,77,80,82,81,83,84,86,88,89,92,93,94,97,98,100,101,</t>
-  </si>
-  <si>
-    <t>100,3,9,3</t>
-  </si>
-  <si>
-    <t>sol:0,1,4,5,8,9,12,15,16,17,20,21,23,24,27,29,32,36,39,41,45,47,49,52,53,56,58,61,63,64,65,70,72,73,74,75,76,81,82,83,86,85,90,93,91,96,94,95,99,97,100,101,</t>
-  </si>
-  <si>
-    <t>100,3,9,4</t>
-  </si>
-  <si>
-    <t>sol:0,3,1,5,7,11,12,15,18,21,23,24,29,32,33,36,37,42,45,46,48,49,53,51,54,58,57,61,62,63,65,66,69,70,72,74,78,80,81,84,85,87,88,92,94,97,98,100,101,</t>
-  </si>
-  <si>
-    <t>100,3,9,5</t>
-  </si>
-  <si>
-    <t>sol:0,1,3,4,5,8,11,9,10,14,13,16,15,18,17,19,20,21,22,24,25,27,28,30,29,31,32,36,34,37,40,42,44,46,49,50,53,55,57,61,64,65,68,69,72,74,76,77,78,82,81,83,86,90,89,92,94,96,98,100,99,101,</t>
-  </si>
-  <si>
-    <t>100,3,9,6</t>
-  </si>
-  <si>
-    <t>sol:0,3,1,2,5,4,7,8,12,11,15,16,17,21,22,25,23,24,27,29,32,34,37,36,40,41,42,43,46,47,50,54,57,59,62,66,67,70,71,73,76,77,80,83,85,86,87,90,92,95,94,96,99,97,98,100,101,</t>
-  </si>
-  <si>
-    <t>100,3,9,7</t>
-  </si>
-  <si>
-    <t>sol:0,1,3,5,8,11,14,16,19,21,24,26,25,27,28,32,33,35,36,37,41,42,46,47,50,52,54,56,58,59,62,65,67,70,71,74,77,80,81,84,85,87,88,90,89,92,94,96,98,99,100,101,</t>
-  </si>
-  <si>
-    <t>100,3,9,8</t>
-  </si>
-  <si>
-    <t>sol:0,2,4,8,9,7,11,13,16,19,18,20,22,23,27,29,33,36,37,40,43,44,49,52,54,55,56,57,58,62,66,68,69,73,74,78,82,81,84,85,87,88,93,94,98,97,100,101,</t>
-  </si>
-  <si>
-    <t>100,3,9,9</t>
-  </si>
-  <si>
-    <t>sol:0,3,4,9,12,14,16,17,19,22,21,26,30,31,36,38,42,45,48,50,49,51,52,53,54,57,59,58,60,61,63,64,65,66,69,71,73,77,75,76,78,79,81,83,85,88,89,93,96,99,100,101,</t>
-  </si>
-  <si>
-    <t>100,5,9,0</t>
-  </si>
-  <si>
-    <t>sol:0,3,2,6,10,9,12,13,16,17,21,22,27,25,28,32,29,33,30,34,38,36,40,43,47,50,51,54,52,57,55,60,62,64,69,74,71,75,77,78,79,82,81,83,80,86,87,84,88,85,92,91,94,100,97,99,98,101,</t>
-  </si>
-  <si>
-    <t>100,5,9,1</t>
-  </si>
-  <si>
-    <t>sol:0,5,1,6,12,14,13,15,18,20,24,25,30,33,34,36,39,43,45,49,50,52,51,56,57,61,62,66,70,72,74,77,80,84,87,90,91,95,94,96,99,100,101,</t>
-  </si>
-  <si>
-    <t>100,5,9,2</t>
-  </si>
-  <si>
-    <t>sol:0,1,2,9,7,11,14,17,19,18,20,23,22,26,28,31,32,33,34,39,37,40,41,42,45,47,49,52,54,57,59,63,68,70,69,73,75,77,82,84,88,87,89,94,93,95,100,99,101,</t>
-  </si>
-  <si>
-    <t>100,5,9,3</t>
-  </si>
-  <si>
-    <t>sol:0,4,3,2,6,10,11,12,15,19,20,24,22,26,27,33,36,41,43,45,46,47,51,56,53,57,59,61,66,69,72,70,75,73,80,81,82,84,86,89,87,91,94,92,96,98,97,100,101,</t>
-  </si>
-  <si>
-    <t>100,5,9,4</t>
-  </si>
-  <si>
-    <t>sol:0,3,2,1,7,6,11,10,13,17,18,15,20,24,26,30,31,29,32,35,36,37,40,38,43,42,48,50,53,55,54,56,57,62,64,63,68,67,71,72,75,77,79,85,86,90,89,91,93,97,98,99,100,101,</t>
-  </si>
-  <si>
-    <t>100,5,9,5</t>
-  </si>
-  <si>
-    <t>sol:0,4,5,6,7,9,11,14,15,18,16,19,20,23,26,25,27,33,34,37,39,42,41,47,46,48,50,49,52,53,55,59,57,63,66,67,65,70,73,76,82,83,86,88,89,93,90,94,99,97,100,101,</t>
-  </si>
-  <si>
-    <t>100,5,9,6</t>
-  </si>
-  <si>
-    <t>sol:0,3,5,6,9,11,16,17,19,18,22,24,26,27,31,35,38,37,41,45,46,48,47,49,50,53,52,56,57,62,61,65,67,70,68,69,75,78,79,81,83,85,87,89,92,96,95,98,99,100,101,</t>
-  </si>
-  <si>
-    <t>100,5,9,7</t>
-  </si>
-  <si>
-    <t>sol:0,5,1,3,2,7,10,8,13,15,17,20,21,24,26,28,31,34,38,35,40,39,41,43,47,48,46,51,54,55,53,57,56,61,60,63,65,66,67,70,69,71,74,77,80,82,83,85,90,91,94,96,98,99,100,101,</t>
-  </si>
-  <si>
-    <t>100,5,9,8</t>
-  </si>
-  <si>
-    <t>sol:0,1,4,2,3,6,7,8,11,10,9,14,16,17,19,20,24,26,29,30,32,35,37,36,39,40,42,41,44,47,49,51,52,56,59,62,64,69,71,74,73,75,77,78,80,83,84,89,91,90,97,94,98,99,100,101,</t>
-  </si>
-  <si>
-    <t>100,5,9,9</t>
-  </si>
-  <si>
-    <t>sol:0,1,6,8,13,11,16,18,20,23,24,26,22,27,29,30,34,37,39,42,43,46,47,52,54,53,56,57,62,59,66,67,70,68,69,74,77,76,80,83,82,85,86,88,91,95,94,96,100,101,</t>
-  </si>
-  <si>
-    <t>100,7,9,0</t>
-  </si>
-  <si>
-    <t>sol:0,1,6,8,11,9,15,16,20,21,24,25,26,29,30,35,38,39,44,45,48,46,51,55,58,59,60,62,63,66,67,71,69,75,76,77,79,82,85,86,88,89,91,94,93,97,100,98,99,101,</t>
-  </si>
-  <si>
-    <t>100,7,9,1</t>
-  </si>
-  <si>
-    <t>sol:0,4,8,10,12,15,13,16,17,21,23,29,34,31,35,37,38,44,43,40,47,45,51,48,50,57,56,58,63,67,66,65,71,72,74,76,79,78,81,85,88,91,89,92,97,96,98,100,101,</t>
-  </si>
-  <si>
-    <t>100,7,9,2</t>
-  </si>
-  <si>
-    <t>sol:0,6,3,5,1,7,2,10,15,16,11,18,20,23,21,25,32,28,33,34,35,36,38,42,39,43,44,50,51,53,49,57,61,63,58,60,64,66,72,73,70,77,79,81,86,89,84,94,93,95,98,100,99,101,</t>
-  </si>
-  <si>
-    <t>100,7,9,3</t>
-  </si>
-  <si>
-    <t>sol:0,5,1,3,2,10,12,16,19,23,24,20,22,29,30,35,36,34,39,42,43,46,49,47,51,53,57,60,63,61,66,67,72,74,75,76,78,84,80,85,83,87,88,95,94,99,97,92,98,96,100,101,</t>
-  </si>
-  <si>
-    <t>100,7,9,4</t>
-  </si>
-  <si>
-    <t>sol:0,4,5,8,2,11,10,13,15,21,18,20,27,26,22,28,29,33,34,32,36,41,40,42,44,45,49,50,55,57,61,58,62,63,67,71,68,76,75,77,79,73,81,84,87,89,93,88,94,95,91,99,96,100,98,101,</t>
-  </si>
-  <si>
-    <t>100,7,9,5</t>
-  </si>
-  <si>
-    <t>sol:0,2,4,9,6,15,12,17,19,21,25,29,27,31,32,37,41,44,45,51,47,53,54,57,62,61,56,64,66,68,65,72,76,73,77,80,78,85,84,87,90,93,96,91,92,100,97,101,</t>
-  </si>
-  <si>
-    <t>100,7,9,6</t>
-  </si>
-  <si>
-    <t>sol:0,2,1,6,7,13,18,20,22,25,23,26,27,29,33,35,34,39,42,41,46,47,49,52,53,56,51,59,60,64,65,68,67,70,71,76,73,80,78,81,85,84,86,82,83,88,91,95,98,92,99,100,101,</t>
-  </si>
-  <si>
-    <t>100,7,9,7</t>
-  </si>
-  <si>
-    <t>sol:0,5,3,7,6,12,11,9,15,13,14,16,25,28,23,30,29,31,32,36,38,41,44,45,46,50,43,48,54,47,55,60,58,59,65,63,67,69,74,75,78,76,82,80,85,89,92,96,95,99,100,98,101,</t>
-  </si>
-  <si>
-    <t>100,7,9,8</t>
-  </si>
-  <si>
-    <t>sol:0,6,3,2,4,8,9,14,11,15,12,18,21,23,28,29,26,32,33,41,38,44,36,37,42,43,47,46,45,52,49,54,51,57,58,53,60,62,64,69,71,70,76,75,73,78,77,83,84,85,92,96,89,97,100,94,99,98,101,</t>
-  </si>
-  <si>
-    <t>100,7,9,9</t>
-  </si>
-  <si>
-    <t>sol:0,3,5,2,10,9,13,8,16,18,17,19,25,20,24,30,26,31,36,43,42,46,44,51,53,57,59,62,63,60,66,68,71,74,75,80,79,83,88,84,93,96,90,94,92,97,100,101,</t>
-  </si>
-  <si>
-    <t>100,9,9,0</t>
-  </si>
-  <si>
-    <t>sol:0,5,1,11,3,12,18,16,20,25,23,31,24,29,33,28,38,34,37,44,46,47,53,55,50,49,56,60,58,65,62,59,69,72,70,67,75,76,82,83,87,86,85,88,93,91,92,96,90,100,95,97,98,101,</t>
-  </si>
-  <si>
-    <t>100,9,9,1</t>
-  </si>
-  <si>
-    <t>sol:0,9,1,3,4,10,13,6,14,15,19,24,20,25,27,28,30,33,38,36,43,41,46,45,49,47,52,53,51,62,57,64,69,61,70,73,75,79,78,83,87,81,84,89,94,86,93,92,91,98,96,97,99,100,101,</t>
-  </si>
-  <si>
-    <t>100,9,9,2</t>
-  </si>
-  <si>
-    <t>sol:0,6,7,11,3,10,15,16,19,23,22,29,34,36,35,37,42,45,51,50,55,49,59,52,54,60,64,63,67,73,70,78,75,80,79,84,82,90,86,88,93,97,91,94,96,100,99,101,</t>
-  </si>
-  <si>
-    <t>100,9,9,3</t>
-  </si>
-  <si>
-    <t>sol:0,6,2,1,11,5,17,18,14,24,27,28,26,35,29,32,37,39,33,40,43,41,46,48,49,54,61,63,52,65,62,66,69,74,75,76,78,73,81,84,87,86,90,94,99,92,98,100,97,101,</t>
-  </si>
-  <si>
-    <t>100,9,9,4</t>
-  </si>
-  <si>
-    <t>sol:0,1,6,9,4,10,7,16,13,14,15,20,18,24,29,32,31,27,28,34,36,42,35,44,41,43,46,47,57,55,60,63,62,68,66,70,78,79,81,72,84,87,80,85,91,96,90,100,93,94,99,97,98,101,</t>
-  </si>
-  <si>
-    <t>100,9,9,5</t>
-  </si>
-  <si>
-    <t>sol:0,2,6,4,3,11,5,12,18,17,15,21,24,29,28,30,36,31,40,43,41,38,48,44,46,45,52,58,61,56,62,67,68,70,71,69,75,73,80,77,83,85,78,89,86,96,95,93,98,92,94,99,101,</t>
-  </si>
-  <si>
-    <t>100,9,9,6</t>
-  </si>
-  <si>
-    <t>sol:0,4,7,6,11,15,14,16,25,17,22,27,29,23,28,35,32,34,33,31,37,38,41,36,44,45,39,47,51,56,48,53,61,63,62,72,69,67,74,77,71,73,79,86,89,88,94,92,93,100,95,99,97,101,</t>
-  </si>
-  <si>
-    <t>100,9,9,7</t>
-  </si>
-  <si>
-    <t>sol:0,2,7,4,11,13,12,20,16,18,22,21,24,25,29,26,32,28,35,34,42,39,43,44,45,51,53,58,56,57,62,60,68,70,72,66,75,73,83,77,79,88,86,89,87,91,98,96,92,97,100,101,</t>
-  </si>
-  <si>
-    <t>100,9,9,8</t>
-  </si>
-  <si>
-    <t>sol:0,4,8,9,14,3,20,18,19,16,23,29,24,30,28,27,36,32,39,45,43,44,47,52,53,58,59,55,60,57,68,63,71,72,62,74,70,75,76,78,77,80,83,82,86,92,93,90,91,100,98,99,97,101,</t>
-  </si>
-  <si>
-    <t>100,9,9,9</t>
-  </si>
-  <si>
-    <t>sol:0,1,7,8,2,10,5,17,21,19,24,16,22,26,20,27,29,32,33,34,30,39,43,46,48,47,38,50,53,51,60,61,63,56,69,64,74,75,70,73,78,81,76,84,85,83,88,90,91,92,96,89,93,95,98,100,99,97,101,</t>
-  </si>
-  <si>
-    <t>100,11,9,0</t>
-  </si>
-  <si>
-    <t>sol:0,6,10,12,1,7,17,14,21,15,18,32,34,25,27,40,42,39,33,36,45,43,49,53,56,57,52,62,59,58,67,63,71,65,70,75,76,82,83,85,88,92,86,98,90,99,96,100,101,</t>
-  </si>
-  <si>
-    <t>100,11,9,1</t>
-  </si>
-  <si>
-    <t>sol:0,7,2,9,6,5,11,1,10,14,13,8,16,17,24,27,29,22,32,34,37,39,40,41,46,45,44,50,52,60,48,59,68,63,55,64,61,74,72,73,80,75,77,78,86,81,88,89,87,82,94,90,95,91,100,98,93,96,99,101,</t>
-  </si>
-  <si>
-    <t>100,11,9,2</t>
-  </si>
-  <si>
-    <t>sol:0,1,11,2,14,9,15,17,3,19,25,28,22,21,30,26,32,31,34,39,37,43,41,40,45,50,56,59,60,62,66,67,63,68,64,72,65,74,71,79,77,73,86,80,84,83,85,95,88,93,99,94,92,96,97,100,98,101,</t>
-  </si>
-  <si>
-    <t>100,11,9,3</t>
-  </si>
-  <si>
-    <t>sol:0,11,10,14,1,12,5,24,15,16,21,27,32,31,23,34,35,43,45,38,52,50,57,54,62,65,59,63,72,70,74,68,80,77,86,82,78,84,89,85,88,94,99,90,95,92,100,101,</t>
-  </si>
-  <si>
-    <t>100,11,9,4</t>
-  </si>
-  <si>
-    <t>sol:0,6,8,7,5,15,9,3,22,26,27,21,28,32,35,25,34,40,41,43,45,42,44,52,51,48,55,58,60,64,67,65,66,71,72,77,75,83,80,78,88,84,79,86,85,96,92,100,95,99,101,</t>
-  </si>
-  <si>
     <t>Instance (n,width,R,ins)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2271,12 +1996,279 @@
   </si>
   <si>
     <t>30,0.98,4</t>
+  </si>
+  <si>
+    <t>100,3,1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,3,1,1</t>
+  </si>
+  <si>
+    <t>100,3,1,2</t>
+  </si>
+  <si>
+    <t>100,3,1,3</t>
+  </si>
+  <si>
+    <t>100,3,1,4</t>
+  </si>
+  <si>
+    <t>100,5,1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,5,1,1</t>
+  </si>
+  <si>
+    <t>100,5,1,2</t>
+  </si>
+  <si>
+    <t>100,5,1,3</t>
+  </si>
+  <si>
+    <t>100,5,1,4</t>
+  </si>
+  <si>
+    <t>100,7,1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,7,1,1</t>
+  </si>
+  <si>
+    <t>100,7,1,2</t>
+  </si>
+  <si>
+    <t>100,7,1,3</t>
+  </si>
+  <si>
+    <t>100,7,1,4</t>
+  </si>
+  <si>
+    <t>100,9,1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,11,1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,11,1,1</t>
+  </si>
+  <si>
+    <t>100,11,1,2</t>
+  </si>
+  <si>
+    <t>100,11,1,3</t>
+  </si>
+  <si>
+    <t>100,11,1,4</t>
+  </si>
+  <si>
+    <t>100,13,1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,13,1,1</t>
+  </si>
+  <si>
+    <t>100,13,1,2</t>
+  </si>
+  <si>
+    <t>100,13,1,3</t>
+  </si>
+  <si>
+    <t>100,13,1,4</t>
+  </si>
+  <si>
+    <t>100,15,1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,15,1,1</t>
+  </si>
+  <si>
+    <t>100,15,1,2</t>
+  </si>
+  <si>
+    <t>100,15,1,3</t>
+  </si>
+  <si>
+    <t>100,15,1,4</t>
+  </si>
+  <si>
+    <t>100,17,1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,17,1,1</t>
+  </si>
+  <si>
+    <t>100,17,1,2</t>
+  </si>
+  <si>
+    <t>100,17,1,3</t>
+  </si>
+  <si>
+    <t>100,17,1,4</t>
+  </si>
+  <si>
+    <t>100,19,1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,19,1,1</t>
+  </si>
+  <si>
+    <t>100,19,1,2</t>
+  </si>
+  <si>
+    <t>100,19,1,3</t>
+  </si>
+  <si>
+    <t>100,19,1,4</t>
+  </si>
+  <si>
+    <t>sol:0,1,2,3,4,5,8,10,12,11,15,14,17,20,21,23,22,24,27,25,29,28,30,32,31,36,34,35,38,39,37,40,42,43,45,44,46,48,49,47,50,51,54,53,55,59,60,61,63,66,64,65,67,69,71,70,74,75,76,78,79,80,81,82,84,83,85,86,88,90,92,93,95,94,97,98,100,101,</t>
+  </si>
+  <si>
+    <t>sol:0,2,1,3,5,6,4,7,9,8,10,12,11,15,18,17,16,20,21,23,24,25,28,30,33,31,34,35,36,39,38,37,42,41,45,44,43,47,48,46,50,51,52,53,54,57,59,58,62,61,63,65,66,67,69,71,70,72,74,73,75,78,76,79,80,81,82,84,86,87,88,92,91,95,96,99,97,98,100,101,</t>
+  </si>
+  <si>
+    <t>sol:0,1,3,2,5,6,8,7,10,11,13,15,18,17,21,20,23,22,25,27,26,29,28,30,31,33,36,35,39,37,42,41,40,43,45,47,46,51,49,54,53,56,57,59,60,61,62,65,64,68,69,67,70,72,73,76,78,79,83,82,87,86,88,90,89,91,93,92,95,96,99,98,100,101,</t>
+  </si>
+  <si>
+    <t>sol:0,3,2,1,6,4,7,9,8,12,10,15,14,17,19,21,23,22,27,29,30,31,33,35,34,37,38,39,41,40,45,44,46,49,51,54,53,57,55,58,59,61,62,63,64,65,68,69,70,71,74,75,76,77,81,80,82,83,87,85,89,90,93,92,94,95,97,98,99,100,101,</t>
+  </si>
+  <si>
+    <t>sol:0,1,2,5,6,8,12,10,15,14,16,18,17,21,20,19,22,24,23,26,25,30,29,32,33,34,35,38,39,42,40,43,44,47,48,49,50,53,52,56,55,60,58,62,63,61,65,64,66,67,68,69,72,70,73,75,74,78,79,81,82,83,85,86,87,89,90,93,94,95,96,97,98,99,100,101,</t>
+  </si>
+  <si>
+    <t>sol:0,5,4,6,13,14,15,11,19,23,24,27,28,26,33,34,39,37,44,42,48,51,55,54,58,61,63,64,69,70,73,71,77,79,81,80,86,90,89,95,94,96,99,100,101,</t>
+  </si>
+  <si>
+    <t>sol:0,1,5,6,8,14,12,15,17,18,23,25,28,27,31,34,38,37,43,42,46,47,50,48,52,51,55,57,56,65,66,69,71,73,75,78,82,85,87,89,91,95,94,96,100,101,</t>
+  </si>
+  <si>
+    <t>sol:0,3,4,2,7,6,14,15,17,16,22,25,21,26,27,31,33,39,36,44,41,43,45,46,49,47,50,51,60,59,61,65,68,74,71,77,79,82,83,88,89,94,95,92,91,98,99,97,100,101,</t>
+  </si>
+  <si>
+    <t>sol:0,3,2,9,10,8,15,13,19,20,18,22,23,24,30,28,31,33,36,38,43,42,50,55,51,60,59,64,62,69,66,70,74,73,76,80,78,84,90,87,88,93,92,99,98,101,</t>
+  </si>
+  <si>
+    <t>sol:0,4,1,6,8,15,11,18,19,24,22,25,28,29,30,31,33,34,36,39,41,44,50,53,52,55,51,60,59,65,63,69,73,72,76,79,82,85,90,93,94,97,99,98,101,</t>
+  </si>
+  <si>
+    <t>sol:0,5,4,10,14,21,16,20,23,27,32,30,37,45,43,50,53,60,61,59,64,70,76,73,83,84,91,92,98,96,99,101,</t>
+  </si>
+  <si>
+    <t>sol:0,3,1,11,9,20,24,25,26,32,33,37,38,45,44,51,55,62,67,69,73,76,77,84,79,90,85,93,94,98,99,100,101,</t>
+  </si>
+  <si>
+    <t>sol:0,4,5,10,12,15,18,20,27,26,29,35,42,40,44,48,49,52,51,63,61,70,68,73,75,79,83,91,90,98,94,97,100,99,101,</t>
+  </si>
+  <si>
+    <t>sol:0,7,4,9,8,15,20,16,27,22,32,36,42,44,47,51,59,60,70,65,71,73,84,81,90,91,92,98,97,100,99,101,</t>
+  </si>
+  <si>
+    <t>sol:0,2,3,4,11,16,18,26,27,34,40,38,46,55,53,58,59,66,68,67,76,84,83,85,88,94,93,95,99,100,101,</t>
+  </si>
+  <si>
+    <t>sol:0,1,8,9,5,16,20,22,28,37,39,51,46,48,56,60,61,67,68,76,80,88,92,91,99,100,101,</t>
+  </si>
+  <si>
+    <t>sol:0,5,8,3,12,20,25,35,33,30,39,37,51,53,60,64,65,71,79,75,81,82,83,97,96,95,100,101,</t>
+  </si>
+  <si>
+    <t>sol:0,3,6,9,8,18,21,20,33,28,36,41,37,48,55,56,65,68,70,79,74,82,83,92,98,100,101,</t>
+  </si>
+  <si>
+    <t>sol:0,7,2,6,16,18,13,23,19,36,31,38,39,41,45,46,48,50,54,63,59,64,72,76,77,83,85,87,97,98,100,101,</t>
+  </si>
+  <si>
+    <t>sol:0,1,9,2,12,15,24,26,22,29,28,43,38,45,54,47,56,57,72,73,77,84,87,97,96,100,101,</t>
+  </si>
+  <si>
+    <t>sol:0,3,1,5,21,18,32,30,41,35,48,55,65,77,70,81,79,90,93,100,101,</t>
+  </si>
+  <si>
+    <t>sol:0,2,7,5,19,29,23,31,24,37,40,44,51,57,56,73,68,79,83,98,97,100,101,</t>
+  </si>
+  <si>
+    <t>sol:0,11,1,22,13,24,31,29,41,44,45,49,61,63,68,73,83,86,85,93,96,100,101,</t>
+  </si>
+  <si>
+    <t>sol:0,2,3,19,16,24,25,34,39,44,38,49,52,61,62,65,73,76,86,84,91,94,99,100,101,</t>
+  </si>
+  <si>
+    <t>sol:0,6,1,5,21,19,30,27,31,39,44,48,45,62,60,68,79,88,93,98,99,100,101,</t>
+  </si>
+  <si>
+    <t>sol:0,4,5,15,22,27,29,31,46,44,53,57,71,74,89,82,96,93,94,98,101,</t>
+  </si>
+  <si>
+    <t>sol:0,8,1,14,15,24,31,32,51,40,52,56,57,74,68,67,76,87,90,80,83,98,100,101,</t>
+  </si>
+  <si>
+    <t>sol:0,8,10,12,18,26,28,32,48,47,41,53,69,73,68,67,81,86,91,94,100,101,</t>
+  </si>
+  <si>
+    <t>sol:0,4,7,25,19,36,27,48,57,53,75,73,88,87,96,98,95,101,</t>
+  </si>
+  <si>
+    <t>sol:0,2,3,9,21,30,38,27,33,43,55,54,73,83,87,89,93,92,99,101,</t>
+  </si>
+  <si>
+    <t>sol:0,10,12,2,16,29,31,33,32,40,50,61,66,71,72,79,85,95,94,96,101,</t>
+  </si>
+  <si>
+    <t>sol:0,4,12,3,2,24,27,45,44,39,58,52,72,71,77,86,90,93,100,101,</t>
+  </si>
+  <si>
+    <t>sol:0,13,12,1,20,21,33,35,38,53,56,73,74,78,94,90,92,91,97,98,101,</t>
+  </si>
+  <si>
+    <t>sol:0,2,5,22,18,45,37,60,58,51,67,62,81,79,86,93,91,94,101,</t>
+  </si>
+  <si>
+    <t>sol:0,15,13,10,8,18,41,48,55,58,54,68,65,62,77,80,76,97,93,99,95,101,</t>
+  </si>
+  <si>
+    <t>sol:0,3,7,16,27,37,36,35,65,82,79,98,90,88,101,</t>
+  </si>
+  <si>
+    <t>sol:0,10,6,19,25,38,46,52,54,72,71,95,100,88,96,101,</t>
+  </si>
+  <si>
+    <t>sol:0,2,7,8,25,21,30,49,67,64,84,85,90,94,101,</t>
+  </si>
+  <si>
+    <t>sol:0,15,3,20,42,48,54,60,76,74,78,96,99,101,</t>
+  </si>
+  <si>
+    <t>sol:0,6,8,14,32,37,51,50,58,75,79,74,88,100,94,101,</t>
+  </si>
+  <si>
+    <t>sol:0,5,7,2,37,23,38,48,73,65,88,91,98,96,101,</t>
+  </si>
+  <si>
+    <t>sol:0,16,19,17,4,33,21,55,52,49,75,87,81,99,100,98,101,</t>
+  </si>
+  <si>
+    <t>sol:0,9,4,32,27,26,50,51,61,60,76,85,93,89,97,101,</t>
+  </si>
+  <si>
+    <t>sol:0,12,19,23,39,56,67,66,72,80,85,86,78,99,97,101,</t>
+  </si>
+  <si>
+    <t>sol:0,19,17,21,30,54,48,72,59,85,82,88,100,98,101,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2595,19 +2587,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>152</v>
       </c>
@@ -2618,7 +2610,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2629,7 +2621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2640,7 +2632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2651,7 +2643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2662,7 +2654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2673,7 +2665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2684,7 +2676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2695,7 +2687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2706,7 +2698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2717,7 +2709,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2728,7 +2720,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2739,7 +2731,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2750,7 +2742,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2761,7 +2753,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -2772,7 +2764,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2783,7 +2775,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -2794,7 +2786,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -2805,7 +2797,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -2816,7 +2808,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -2827,7 +2819,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -2838,7 +2830,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -2849,7 +2841,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -2860,7 +2852,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -2871,7 +2863,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -2882,7 +2874,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -2893,7 +2885,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -2904,7 +2896,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -2915,7 +2907,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -2926,7 +2918,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -2937,7 +2929,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -2948,7 +2940,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -2959,7 +2951,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -2970,7 +2962,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -2981,7 +2973,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -2992,7 +2984,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -3003,7 +2995,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -3014,7 +3006,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -3025,7 +3017,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -3036,7 +3028,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -3047,7 +3039,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -3058,7 +3050,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -3069,7 +3061,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -3080,7 +3072,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -3091,7 +3083,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -3102,7 +3094,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -3113,7 +3105,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -3124,7 +3116,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -3135,7 +3127,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>94</v>
       </c>
@@ -3146,7 +3138,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -3157,7 +3149,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>98</v>
       </c>
@@ -3168,7 +3160,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>100</v>
       </c>
@@ -3179,7 +3171,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>102</v>
       </c>
@@ -3190,7 +3182,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>104</v>
       </c>
@@ -3201,7 +3193,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>106</v>
       </c>
@@ -3212,7 +3204,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>108</v>
       </c>
@@ -3223,7 +3215,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>110</v>
       </c>
@@ -3234,7 +3226,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>112</v>
       </c>
@@ -3245,7 +3237,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>114</v>
       </c>
@@ -3256,7 +3248,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -3267,7 +3259,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -3278,7 +3270,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>120</v>
       </c>
@@ -3289,7 +3281,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>122</v>
       </c>
@@ -3300,7 +3292,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>134</v>
       </c>
@@ -3311,7 +3303,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>136</v>
       </c>
@@ -3322,7 +3314,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>138</v>
       </c>
@@ -3333,7 +3325,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>140</v>
       </c>
@@ -3344,7 +3336,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>142</v>
       </c>
@@ -3355,7 +3347,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>144</v>
       </c>
@@ -3366,7 +3358,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>146</v>
       </c>
@@ -3377,7 +3369,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>148</v>
       </c>
@@ -3388,7 +3380,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>124</v>
       </c>
@@ -3399,7 +3391,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>126</v>
       </c>
@@ -3410,7 +3402,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>128</v>
       </c>
@@ -3421,7 +3413,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>130</v>
       </c>
@@ -3432,7 +3424,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>132</v>
       </c>
@@ -3451,21 +3443,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>243</v>
+        <v>153</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>150</v>
@@ -3474,527 +3466,528 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2">
-        <v>56668749907414.703</v>
-      </c>
-      <c r="C2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B3">
-        <v>53689563794900.898</v>
-      </c>
-      <c r="C3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B4">
-        <v>55981766375220.297</v>
-      </c>
-      <c r="C4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5">
-        <v>55483276505053.703</v>
-      </c>
-      <c r="C5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B6">
-        <v>56253198449075.602</v>
-      </c>
-      <c r="C6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>655</v>
+      </c>
+      <c r="B2" s="1">
+        <v>83017</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B3" s="1">
+        <v>84882</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B4" s="1">
+        <v>83859.724047859796</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B5" s="1">
+        <v>84907</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B6" s="1">
+        <v>85403</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B7">
-        <v>56082646065295.5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B8">
-        <v>57621972812612.398</v>
-      </c>
-      <c r="C8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9">
-        <v>57858156349016</v>
-      </c>
-      <c r="C9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B10">
-        <v>58487671631283</v>
-      </c>
-      <c r="C10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>171</v>
-      </c>
-      <c r="B11">
-        <v>56308954091099.5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+      <c r="B7" s="1">
+        <v>52270</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B8" s="1">
+        <v>52488</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B9" s="1">
+        <v>51364</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B10" s="1">
+        <v>52164</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B11" s="1">
+        <v>52267</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>173</v>
-      </c>
-      <c r="B12">
-        <v>56694467276777.203</v>
-      </c>
-      <c r="C12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>175</v>
-      </c>
-      <c r="B13">
-        <v>53188473943760.203</v>
-      </c>
-      <c r="C13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>177</v>
-      </c>
-      <c r="B14">
-        <v>58036945489808.203</v>
-      </c>
-      <c r="C14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>179</v>
-      </c>
-      <c r="B15">
-        <v>57938187981709.398</v>
-      </c>
-      <c r="C15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>181</v>
-      </c>
-      <c r="B16">
-        <v>56241344634881.898</v>
-      </c>
-      <c r="C16" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>665</v>
+      </c>
+      <c r="B12" s="1">
+        <v>38243</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B13" s="1">
+        <v>38195</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B14" s="1">
+        <v>38879</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B15" s="1">
+        <v>38918</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B16" s="1">
+        <v>39428.962365591397</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>183</v>
-      </c>
-      <c r="B17">
-        <v>55979255423067.797</v>
-      </c>
-      <c r="C17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>185</v>
-      </c>
-      <c r="B18">
-        <v>56081982694617.5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>187</v>
-      </c>
-      <c r="B19">
-        <v>59363189150284.297</v>
-      </c>
-      <c r="C19" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>189</v>
-      </c>
-      <c r="B20">
-        <v>55319823937081.5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>191</v>
-      </c>
-      <c r="B21">
-        <v>54381759628888</v>
-      </c>
-      <c r="C21" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>670</v>
+      </c>
+      <c r="B17" s="1">
+        <v>31012</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="1">
+        <v>31362</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="1">
+        <v>31523</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="1">
+        <v>30284</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="1">
+        <v>30347</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>193</v>
-      </c>
-      <c r="B22">
-        <v>59294848507961.5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>195</v>
-      </c>
-      <c r="B23">
-        <v>60963592031765.5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>197</v>
-      </c>
-      <c r="B24">
-        <v>58524211676937.602</v>
-      </c>
-      <c r="C24" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>199</v>
-      </c>
-      <c r="B25">
-        <v>58958483733791.5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>201</v>
-      </c>
-      <c r="B26">
-        <v>58430978943381.898</v>
-      </c>
-      <c r="C26" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+      <c r="B22" s="1">
+        <v>26478</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B23" s="1">
+        <v>26549</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B24" s="1">
+        <v>26253</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B25" s="1">
+        <v>25975</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B26" s="1">
+        <v>26706</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>203</v>
-      </c>
-      <c r="B27">
-        <v>53874827291077.203</v>
-      </c>
-      <c r="C27" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>205</v>
-      </c>
-      <c r="B28">
-        <v>55426971861519.898</v>
-      </c>
-      <c r="C28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>207</v>
-      </c>
-      <c r="B29">
-        <v>54636366236976.797</v>
-      </c>
-      <c r="C29" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>209</v>
-      </c>
-      <c r="B30">
-        <v>59339603295433.703</v>
-      </c>
-      <c r="C30" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>211</v>
-      </c>
-      <c r="B31">
-        <v>56563057045516.602</v>
-      </c>
-      <c r="C31" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>676</v>
+      </c>
+      <c r="B27" s="1">
+        <v>21732</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B28" s="1">
+        <v>22270</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B29" s="1">
+        <v>22220</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B30" s="1">
+        <v>21851</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B31" s="1">
+        <v>22012</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>213</v>
-      </c>
-      <c r="B32">
-        <v>60022735980452.898</v>
-      </c>
-      <c r="C32" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>215</v>
-      </c>
-      <c r="B33">
-        <v>53945789068020.398</v>
-      </c>
-      <c r="C33" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>217</v>
-      </c>
-      <c r="B34">
-        <v>54025105789928.703</v>
-      </c>
-      <c r="C34" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>219</v>
-      </c>
-      <c r="B35">
-        <v>55595035343989.203</v>
-      </c>
-      <c r="C35" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>221</v>
-      </c>
-      <c r="B36">
-        <v>58034185173515.398</v>
-      </c>
-      <c r="C36" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>681</v>
+      </c>
+      <c r="B32" s="1">
+        <v>19509</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B33" s="1">
+        <v>19790</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B34" s="1">
+        <v>19660</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B35" s="1">
+        <v>19174</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B36" s="1">
+        <v>19424</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>223</v>
-      </c>
-      <c r="B37">
-        <v>54197752725491.5</v>
-      </c>
-      <c r="C37" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>225</v>
-      </c>
-      <c r="B38">
-        <v>53991805768084.398</v>
-      </c>
-      <c r="C38" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>227</v>
-      </c>
-      <c r="B39">
-        <v>60595892248127.203</v>
-      </c>
-      <c r="C39" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>229</v>
-      </c>
-      <c r="B40">
-        <v>59301696840434.898</v>
-      </c>
-      <c r="C40" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>231</v>
-      </c>
-      <c r="B41">
-        <v>60757316546999.398</v>
-      </c>
-      <c r="C41" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>686</v>
+      </c>
+      <c r="B37" s="1">
+        <v>16936</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B38" s="1">
+        <v>17151</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B39" s="1">
+        <v>17003</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B40" s="1">
+        <v>17128</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B41" s="1">
+        <v>17145</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>233</v>
-      </c>
-      <c r="B42">
-        <v>62967092111919</v>
-      </c>
-      <c r="C42" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>235</v>
-      </c>
-      <c r="B43">
-        <v>62523732598771</v>
-      </c>
-      <c r="C43" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>237</v>
-      </c>
-      <c r="B44">
-        <v>55352883101783.703</v>
-      </c>
-      <c r="C44" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>239</v>
-      </c>
-      <c r="B45">
-        <v>58302166080333.898</v>
-      </c>
-      <c r="C45" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>241</v>
-      </c>
-      <c r="B46">
-        <v>60148396110071.398</v>
-      </c>
-      <c r="C46" t="s">
-        <v>242</v>
+        <v>691</v>
+      </c>
+      <c r="B42" s="1">
+        <v>16539</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B43" s="1">
+        <v>16373</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B44" s="1">
+        <v>16482</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B45" s="1">
+        <v>16674</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B46" s="1">
+        <v>16572</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>740</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q251"/>
   <sheetViews>
-    <sheetView topLeftCell="A221" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="1"/>
-    <col min="17" max="17" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="24.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.9140625" style="1"/>
+    <col min="11" max="11" width="21.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.9140625" style="1"/>
+    <col min="17" max="17" width="8.9140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>494</v>
+        <v>404</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>150</v>
@@ -4003,2754 +3996,2754 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>495</v>
+        <v>405</v>
       </c>
       <c r="B2" s="1">
         <v>10157861877481.9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>496</v>
+        <v>406</v>
       </c>
       <c r="B3" s="1">
         <v>12708097688959.5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>497</v>
+        <v>407</v>
       </c>
       <c r="B4" s="1">
         <v>11581399809904.5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>498</v>
+        <v>408</v>
       </c>
       <c r="B5" s="1">
         <v>9345693393118.4902</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>499</v>
+        <v>409</v>
       </c>
       <c r="B6" s="1">
         <v>13096024619390.5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>500</v>
+        <v>410</v>
       </c>
       <c r="B7" s="1">
         <v>11302324778924.6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>501</v>
+        <v>411</v>
       </c>
       <c r="B8" s="1">
         <v>8022796774128.6699</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>502</v>
+        <v>412</v>
       </c>
       <c r="B9" s="1">
         <v>13401851317433.4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>503</v>
+        <v>413</v>
       </c>
       <c r="B10" s="1">
         <v>11325710426397.1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>504</v>
+        <v>414</v>
       </c>
       <c r="B11" s="1">
         <v>8662444829952.6201</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>505</v>
+        <v>415</v>
       </c>
       <c r="B12" s="1">
         <v>9036637488180.3906</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>506</v>
+        <v>416</v>
       </c>
       <c r="B13" s="1">
         <v>11829878032507.199</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>507</v>
+        <v>417</v>
       </c>
       <c r="B14" s="1">
         <v>10814994079435.5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>508</v>
+        <v>418</v>
       </c>
       <c r="B15" s="1">
         <v>13257768221729.6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>509</v>
+        <v>419</v>
       </c>
       <c r="B16" s="1">
         <v>11114903421977.5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>510</v>
+        <v>420</v>
       </c>
       <c r="B17" s="1">
         <v>9977211000040.75</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>511</v>
+        <v>421</v>
       </c>
       <c r="B18" s="1">
         <v>11827062743826.699</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>512</v>
+        <v>422</v>
       </c>
       <c r="B19" s="1">
         <v>11739530615256</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>513</v>
+        <v>423</v>
       </c>
       <c r="B20" s="1">
         <v>11608035443034.199</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>514</v>
+        <v>424</v>
       </c>
       <c r="B21" s="1">
         <v>11964393818941.4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>515</v>
+        <v>425</v>
       </c>
       <c r="B22" s="1">
         <v>10831411001306</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>516</v>
+        <v>426</v>
       </c>
       <c r="B23" s="1">
         <v>11961904607618.801</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>517</v>
+        <v>427</v>
       </c>
       <c r="B24" s="1">
         <v>11135910371186.6</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>518</v>
+        <v>428</v>
       </c>
       <c r="B25" s="1">
         <v>12174177996554.199</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>519</v>
+        <v>429</v>
       </c>
       <c r="B26" s="1">
         <v>10938703150665.699</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="B27" s="1">
         <v>11022816707093.301</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>521</v>
+        <v>431</v>
       </c>
       <c r="B28" s="1">
         <v>12337783301545.801</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>522</v>
+        <v>432</v>
       </c>
       <c r="B29" s="1">
         <v>9388317296001.7402</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>523</v>
+        <v>433</v>
       </c>
       <c r="B30" s="1">
         <v>11129530338679.1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>524</v>
+        <v>434</v>
       </c>
       <c r="B31" s="1">
         <v>9986251552455.2793</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>525</v>
+        <v>435</v>
       </c>
       <c r="B32" s="1">
         <v>11088213116900.4</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>526</v>
+        <v>436</v>
       </c>
       <c r="B33" s="1">
         <v>10393983186908.9</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>527</v>
+        <v>437</v>
       </c>
       <c r="B34" s="1">
         <v>11522327319314.1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>528</v>
+        <v>438</v>
       </c>
       <c r="B35" s="1">
         <v>12926036418298.301</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>529</v>
+        <v>439</v>
       </c>
       <c r="B36" s="1">
         <v>12201325192339</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>530</v>
+        <v>440</v>
       </c>
       <c r="B37" s="1">
         <v>12130413749515</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>531</v>
+        <v>441</v>
       </c>
       <c r="B38" s="1">
         <v>10702847519981.1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>532</v>
+        <v>442</v>
       </c>
       <c r="B39" s="1">
         <v>10472102956088.9</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>533</v>
+        <v>443</v>
       </c>
       <c r="B40" s="1">
         <v>12541308221352.1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>534</v>
+        <v>444</v>
       </c>
       <c r="B41" s="1">
         <v>12641365628646.4</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>535</v>
+        <v>445</v>
       </c>
       <c r="B42" s="1">
         <v>11110350299294.1</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>536</v>
+        <v>446</v>
       </c>
       <c r="B43" s="1">
         <v>12776173508606.801</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>537</v>
+        <v>447</v>
       </c>
       <c r="B44" s="1">
         <v>10660178133340.699</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>538</v>
+        <v>448</v>
       </c>
       <c r="B45" s="1">
         <v>12124067146322</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>539</v>
+        <v>449</v>
       </c>
       <c r="B46" s="1">
         <v>12643596820460.199</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>540</v>
+        <v>450</v>
       </c>
       <c r="B47" s="1">
         <v>11919524431185.4</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>541</v>
+        <v>451</v>
       </c>
       <c r="B48" s="1">
         <v>12934899669787.801</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>542</v>
+        <v>452</v>
       </c>
       <c r="B49" s="1">
         <v>12666343350925.5</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>543</v>
+        <v>453</v>
       </c>
       <c r="B50" s="1">
         <v>12236669845785.6</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>544</v>
+        <v>454</v>
       </c>
       <c r="B51" s="1">
         <v>12208989003457.5</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>545</v>
+        <v>455</v>
       </c>
       <c r="B52" s="1">
         <v>13506470207715.699</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>546</v>
+        <v>456</v>
       </c>
       <c r="B53" s="1">
         <v>12284831287570.199</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>547</v>
+        <v>457</v>
       </c>
       <c r="B54" s="1">
         <v>14074001759620</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>548</v>
+        <v>458</v>
       </c>
       <c r="B55" s="1">
         <v>11540564525579.9</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>549</v>
+        <v>459</v>
       </c>
       <c r="B56" s="1">
         <v>11646770906948.301</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>550</v>
+        <v>460</v>
       </c>
       <c r="B57" s="1">
         <v>11603583966167.4</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>551</v>
+        <v>461</v>
       </c>
       <c r="B58" s="1">
         <v>10198086195138.801</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>552</v>
+        <v>462</v>
       </c>
       <c r="B59" s="1">
         <v>11272857234672.6</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>553</v>
+        <v>463</v>
       </c>
       <c r="B60" s="1">
         <v>11182002224561.801</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>554</v>
+        <v>464</v>
       </c>
       <c r="B61" s="1">
         <v>12371022549623</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>555</v>
+        <v>465</v>
       </c>
       <c r="B62" s="1">
         <v>9689719114503.4492</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>556</v>
+        <v>466</v>
       </c>
       <c r="B63" s="1">
         <v>10883355589140.301</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>557</v>
+        <v>467</v>
       </c>
       <c r="B64" s="1">
         <v>12065136433601.699</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>558</v>
+        <v>468</v>
       </c>
       <c r="B65" s="1">
         <v>13082613030611.9</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>559</v>
+        <v>469</v>
       </c>
       <c r="B66" s="1">
         <v>9981153545926.9805</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>560</v>
+        <v>470</v>
       </c>
       <c r="B67" s="1">
         <v>12404004591498</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>561</v>
+        <v>471</v>
       </c>
       <c r="B68" s="1">
         <v>10351750694950</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>562</v>
+        <v>472</v>
       </c>
       <c r="B69" s="1">
         <v>11955825044948.4</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>563</v>
+        <v>473</v>
       </c>
       <c r="B70" s="1">
         <v>11952241713979.699</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>564</v>
+        <v>474</v>
       </c>
       <c r="B71" s="1">
         <v>13771034937386.1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>565</v>
+        <v>475</v>
       </c>
       <c r="B72" s="1">
         <v>11963141717911.199</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>566</v>
+        <v>476</v>
       </c>
       <c r="B73" s="1">
         <v>12313677115423.699</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>567</v>
+        <v>477</v>
       </c>
       <c r="B74" s="1">
         <v>13609184978844.4</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>568</v>
+        <v>478</v>
       </c>
       <c r="B75" s="1">
         <v>12894632507128.801</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>569</v>
+        <v>479</v>
       </c>
       <c r="B76" s="1">
         <v>12564425490991.199</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>570</v>
+        <v>480</v>
       </c>
       <c r="B77" s="1">
         <v>12754182326573.199</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>571</v>
+        <v>481</v>
       </c>
       <c r="B78" s="1">
         <v>12225042768569.5</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>572</v>
+        <v>482</v>
       </c>
       <c r="B79" s="1">
         <v>11640239862593.9</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>573</v>
+        <v>483</v>
       </c>
       <c r="B80" s="1">
         <v>13840591124077.801</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>574</v>
+        <v>484</v>
       </c>
       <c r="B81" s="1">
         <v>13507535591427.301</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>575</v>
+        <v>485</v>
       </c>
       <c r="B82" s="1">
         <v>13508580832373.5</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>576</v>
+        <v>486</v>
       </c>
       <c r="B83" s="1">
         <v>11530542263936.199</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>577</v>
+        <v>487</v>
       </c>
       <c r="B84" s="1">
         <v>13997420659652.199</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>578</v>
+        <v>488</v>
       </c>
       <c r="B85" s="1">
         <v>13049437656602.6</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>579</v>
+        <v>489</v>
       </c>
       <c r="B86" s="1">
         <v>13091208411741.1</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>580</v>
+        <v>490</v>
       </c>
       <c r="B87" s="1">
         <v>12024467283020.9</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>581</v>
+        <v>491</v>
       </c>
       <c r="B88" s="1">
         <v>12819597754904.301</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>582</v>
+        <v>492</v>
       </c>
       <c r="B89" s="1">
         <v>14427278172521.4</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>583</v>
+        <v>493</v>
       </c>
       <c r="B90" s="1">
         <v>14350760265952.6</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>584</v>
+        <v>494</v>
       </c>
       <c r="B91" s="1">
         <v>13562727064734</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>585</v>
+        <v>495</v>
       </c>
       <c r="B92" s="1">
         <v>13897961686648.301</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>586</v>
+        <v>496</v>
       </c>
       <c r="B93" s="1">
         <v>13211804528438.5</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>587</v>
+        <v>497</v>
       </c>
       <c r="B94" s="1">
         <v>12909909991366</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>588</v>
+        <v>498</v>
       </c>
       <c r="B95" s="1">
         <v>12949552415329.801</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>589</v>
+        <v>499</v>
       </c>
       <c r="B96" s="1">
         <v>13410223962830.4</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>590</v>
+        <v>500</v>
       </c>
       <c r="B97" s="1">
         <v>14319773835505.5</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="B98" s="1">
         <v>12972573402863.301</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>592</v>
+        <v>502</v>
       </c>
       <c r="B99" s="1">
         <v>14118319921296.199</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>593</v>
+        <v>503</v>
       </c>
       <c r="B100" s="1">
         <v>14226062219923.6</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>594</v>
+        <v>504</v>
       </c>
       <c r="B101" s="1">
         <v>13825915974538.1</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>595</v>
+        <v>505</v>
       </c>
       <c r="B102" s="1">
         <v>13421699389801.199</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>596</v>
+        <v>506</v>
       </c>
       <c r="B103" s="1">
         <v>12400162890753.801</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>597</v>
+        <v>507</v>
       </c>
       <c r="B104" s="1">
         <v>12970488602808.9</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>598</v>
+        <v>508</v>
       </c>
       <c r="B105" s="1">
         <v>12916514887590.9</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>599</v>
+        <v>509</v>
       </c>
       <c r="B106" s="1">
         <v>13436231458852.5</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>600</v>
+        <v>510</v>
       </c>
       <c r="B107" s="1">
         <v>12850466435972.9</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>601</v>
+        <v>511</v>
       </c>
       <c r="B108" s="1">
         <v>14922192317680</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>602</v>
+        <v>512</v>
       </c>
       <c r="B109" s="1">
         <v>14923252522650.1</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>603</v>
+        <v>513</v>
       </c>
       <c r="B110" s="1">
         <v>11752838997737.801</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>604</v>
+        <v>514</v>
       </c>
       <c r="B111" s="1">
         <v>13366219303714.199</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>605</v>
+        <v>515</v>
       </c>
       <c r="B112" s="1">
         <v>15090944106669.6</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>606</v>
+        <v>516</v>
       </c>
       <c r="B113" s="1">
         <v>13197333486359.4</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>607</v>
+        <v>517</v>
       </c>
       <c r="B114" s="1">
         <v>13406312692405.9</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>608</v>
+        <v>518</v>
       </c>
       <c r="B115" s="1">
         <v>12721232999810.9</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>609</v>
+        <v>519</v>
       </c>
       <c r="B116" s="1">
         <v>14118838656842.301</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>610</v>
+        <v>520</v>
       </c>
       <c r="B117" s="1">
         <v>13095088323393.5</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>611</v>
+        <v>521</v>
       </c>
       <c r="B118" s="1">
         <v>13083363346885.1</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>612</v>
+        <v>522</v>
       </c>
       <c r="B119" s="1">
         <v>13309556994975</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>613</v>
+        <v>523</v>
       </c>
       <c r="B120" s="1">
         <v>12971241957576.199</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>614</v>
+        <v>524</v>
       </c>
       <c r="B121" s="1">
         <v>13345695208949.801</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>615</v>
+        <v>525</v>
       </c>
       <c r="B122" s="1">
         <v>14293269955181.9</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>616</v>
+        <v>526</v>
       </c>
       <c r="B123" s="1">
         <v>14420821112992.9</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>617</v>
+        <v>527</v>
       </c>
       <c r="B124" s="1">
         <v>14469217835161.1</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>618</v>
+        <v>528</v>
       </c>
       <c r="B125" s="1">
         <v>14203903495685.301</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>619</v>
+        <v>529</v>
       </c>
       <c r="B126" s="1">
         <v>13105823008793.801</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>620</v>
+        <v>530</v>
       </c>
       <c r="B127" s="1">
         <v>13763430502338.5</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>621</v>
+        <v>531</v>
       </c>
       <c r="B128" s="1">
         <v>12819306946806.6</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>622</v>
+        <v>532</v>
       </c>
       <c r="B129" s="1">
         <v>14487256255675.699</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>623</v>
+        <v>533</v>
       </c>
       <c r="B130" s="1">
         <v>14951417584166.301</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>624</v>
+        <v>534</v>
       </c>
       <c r="B131" s="1">
         <v>13590584993374.1</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>625</v>
+        <v>535</v>
       </c>
       <c r="B132" s="1">
         <v>14364864081500.9</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>626</v>
+        <v>536</v>
       </c>
       <c r="B133" s="1">
         <v>14776424126259</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>627</v>
+        <v>537</v>
       </c>
       <c r="B134" s="1">
         <v>13299184977595.801</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>628</v>
+        <v>538</v>
       </c>
       <c r="B135" s="1">
         <v>13438869856304.1</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>629</v>
+        <v>539</v>
       </c>
       <c r="B136" s="1">
         <v>13244335550085</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>630</v>
+        <v>540</v>
       </c>
       <c r="B137" s="1">
         <v>15017842456216.5</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>631</v>
+        <v>541</v>
       </c>
       <c r="B138" s="1">
         <v>14438466219672.5</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>632</v>
+        <v>542</v>
       </c>
       <c r="B139" s="1">
         <v>13641032596436.199</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>633</v>
+        <v>543</v>
       </c>
       <c r="B140" s="1">
         <v>14299432425989.801</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>634</v>
+        <v>544</v>
       </c>
       <c r="B141" s="1">
         <v>14167210011493</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>635</v>
+        <v>545</v>
       </c>
       <c r="B142" s="1">
         <v>15672937417191.9</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>636</v>
+        <v>546</v>
       </c>
       <c r="B143" s="1">
         <v>13949354634628.5</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>637</v>
+        <v>547</v>
       </c>
       <c r="B144" s="1">
         <v>14268012183078.4</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>638</v>
+        <v>548</v>
       </c>
       <c r="B145" s="1">
         <v>14445027599579.199</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>639</v>
+        <v>549</v>
       </c>
       <c r="B146" s="1">
         <v>15235919188333.5</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>640</v>
+        <v>550</v>
       </c>
       <c r="B147" s="1">
         <v>14380305157767</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>641</v>
+        <v>551</v>
       </c>
       <c r="B148" s="1">
         <v>14437570103061.9</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>642</v>
+        <v>552</v>
       </c>
       <c r="B149" s="1">
         <v>15686436641796.6</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>643</v>
+        <v>553</v>
       </c>
       <c r="B150" s="1">
         <v>13946225367694.301</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>644</v>
+        <v>554</v>
       </c>
       <c r="B151" s="1">
         <v>14270503243392</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>645</v>
+        <v>555</v>
       </c>
       <c r="B152" s="1">
         <v>13382405385347.1</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>646</v>
+        <v>556</v>
       </c>
       <c r="B153" s="1">
         <v>14781543401250.301</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>647</v>
+        <v>557</v>
       </c>
       <c r="B154" s="1">
         <v>13651993957319.699</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>648</v>
+        <v>558</v>
       </c>
       <c r="B155" s="1">
         <v>14076465327444.699</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>649</v>
+        <v>559</v>
       </c>
       <c r="B156" s="1">
         <v>15137833391678.301</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>650</v>
+        <v>560</v>
       </c>
       <c r="B157" s="1">
         <v>14629602785320.9</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>651</v>
+        <v>561</v>
       </c>
       <c r="B158" s="1">
         <v>14293768283859.9</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>652</v>
+        <v>562</v>
       </c>
       <c r="B159" s="1">
         <v>14172613735026.6</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>653</v>
+        <v>563</v>
       </c>
       <c r="B160" s="1">
         <v>15929157821458.4</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>654</v>
+        <v>564</v>
       </c>
       <c r="B161" s="1">
         <v>14043145124863.301</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>655</v>
+        <v>565</v>
       </c>
       <c r="B162" s="1">
         <v>15768032454189.301</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>656</v>
+        <v>566</v>
       </c>
       <c r="B163" s="1">
         <v>15368072960685.1</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>657</v>
+        <v>567</v>
       </c>
       <c r="B164" s="1">
         <v>15795240337259.9</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>658</v>
+        <v>568</v>
       </c>
       <c r="B165" s="1">
         <v>14969865264046.199</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>659</v>
+        <v>569</v>
       </c>
       <c r="B166" s="1">
         <v>14653403968231.4</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>660</v>
+        <v>570</v>
       </c>
       <c r="B167" s="1">
         <v>14664275575449.6</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>661</v>
+        <v>571</v>
       </c>
       <c r="B168" s="1">
         <v>15329183831321.4</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>662</v>
+        <v>572</v>
       </c>
       <c r="B169" s="1">
         <v>15128971587636.301</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>663</v>
+        <v>573</v>
       </c>
       <c r="B170" s="1">
         <v>15627973288673.301</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>664</v>
+        <v>574</v>
       </c>
       <c r="B171" s="1">
         <v>14923297716910.6</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>665</v>
+        <v>575</v>
       </c>
       <c r="B172" s="1">
         <v>14780167388879.1</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>666</v>
+        <v>576</v>
       </c>
       <c r="B173" s="1">
         <v>16602696432903.9</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>667</v>
+        <v>577</v>
       </c>
       <c r="B174" s="1">
         <v>15290058430873.5</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>668</v>
+        <v>578</v>
       </c>
       <c r="B175" s="1">
         <v>15780208682364.801</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>669</v>
+        <v>579</v>
       </c>
       <c r="B176" s="1">
         <v>15541498553651.6</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>670</v>
+        <v>580</v>
       </c>
       <c r="B177" s="1">
         <v>15792879028162.4</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>671</v>
+        <v>581</v>
       </c>
       <c r="B178" s="1">
         <v>15282309719139.4</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>672</v>
+        <v>582</v>
       </c>
       <c r="B179" s="1">
         <v>15633332954806.1</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>673</v>
+        <v>583</v>
       </c>
       <c r="B180" s="1">
         <v>16594140078230.9</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>674</v>
+        <v>584</v>
       </c>
       <c r="B181" s="1">
         <v>16138354737366.1</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>675</v>
+        <v>585</v>
       </c>
       <c r="B182" s="1">
         <v>15116317503817.301</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>676</v>
+        <v>586</v>
       </c>
       <c r="B183" s="1">
         <v>15398104742496.1</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>677</v>
+        <v>587</v>
       </c>
       <c r="B184" s="1">
         <v>15762008050818.5</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>678</v>
+        <v>588</v>
       </c>
       <c r="B185" s="1">
         <v>15014509816015.199</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>679</v>
+        <v>589</v>
       </c>
       <c r="B186" s="1">
         <v>15881990407510.9</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>680</v>
+        <v>590</v>
       </c>
       <c r="B187" s="1">
         <v>15470507922670.9</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>681</v>
+        <v>591</v>
       </c>
       <c r="B188" s="1">
         <v>15864274152077.301</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>682</v>
+        <v>592</v>
       </c>
       <c r="B189" s="1">
         <v>15586524228801.4</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>683</v>
+        <v>593</v>
       </c>
       <c r="B190" s="1">
         <v>15407103977705</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>684</v>
+        <v>594</v>
       </c>
       <c r="B191" s="1">
         <v>16030546525266.4</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>685</v>
+        <v>595</v>
       </c>
       <c r="B192" s="1">
         <v>15872234629991.6</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>686</v>
+        <v>596</v>
       </c>
       <c r="B193" s="1">
         <v>17149205650613.6</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>687</v>
+        <v>597</v>
       </c>
       <c r="B194" s="1">
         <v>16124644217724.199</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>688</v>
+        <v>598</v>
       </c>
       <c r="B195" s="1">
         <v>15862974607725.5</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>689</v>
+        <v>599</v>
       </c>
       <c r="B196" s="1">
         <v>15751295399856.301</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>690</v>
+        <v>600</v>
       </c>
       <c r="B197" s="1">
         <v>15541334908216.9</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>691</v>
+        <v>601</v>
       </c>
       <c r="B198" s="1">
         <v>16272331127863</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>692</v>
+        <v>602</v>
       </c>
       <c r="B199" s="1">
         <v>15995637112421.699</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>693</v>
+        <v>603</v>
       </c>
       <c r="B200" s="1">
         <v>15889172616783.1</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>694</v>
+        <v>604</v>
       </c>
       <c r="B201" s="1">
         <v>16586318140649.801</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>695</v>
+        <v>605</v>
       </c>
       <c r="B202" s="1">
         <v>16428236423446.4</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>696</v>
+        <v>606</v>
       </c>
       <c r="B203" s="1">
         <v>16300380146586.801</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>697</v>
+        <v>607</v>
       </c>
       <c r="B204" s="1">
         <v>16806519454212.699</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>698</v>
+        <v>608</v>
       </c>
       <c r="B205" s="1">
         <v>16032864042218.801</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>699</v>
+        <v>609</v>
       </c>
       <c r="B206" s="1">
         <v>16480717346771.801</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
-        <v>700</v>
+        <v>610</v>
       </c>
       <c r="B207" s="1">
         <v>16192896614307.5</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>701</v>
+        <v>611</v>
       </c>
       <c r="B208" s="1">
         <v>16738271963559.199</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
-        <v>702</v>
+        <v>612</v>
       </c>
       <c r="B209" s="1">
         <v>16283282397911.4</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>703</v>
+        <v>613</v>
       </c>
       <c r="B210" s="1">
         <v>16940156505723.5</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
-        <v>704</v>
+        <v>614</v>
       </c>
       <c r="B211" s="1">
         <v>16438960382640.699</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>705</v>
+        <v>615</v>
       </c>
       <c r="B212" s="1">
         <v>16594170620338.699</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
-        <v>706</v>
+        <v>616</v>
       </c>
       <c r="B213" s="1">
         <v>16683505152204.6</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>707</v>
+        <v>617</v>
       </c>
       <c r="B214" s="1">
         <v>16556164176830.199</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
-        <v>708</v>
+        <v>618</v>
       </c>
       <c r="B215" s="1">
         <v>16685959610050.801</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
-        <v>709</v>
+        <v>619</v>
       </c>
       <c r="B216" s="1">
         <v>16276536294655.801</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
-        <v>710</v>
+        <v>620</v>
       </c>
       <c r="B217" s="1">
         <v>16482679802833.801</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
-        <v>711</v>
+        <v>621</v>
       </c>
       <c r="B218" s="1">
         <v>17085295452205.801</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
-        <v>712</v>
+        <v>622</v>
       </c>
       <c r="B219" s="1">
         <v>16407085571894.5</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>713</v>
+        <v>623</v>
       </c>
       <c r="B220" s="1">
         <v>17051821038982.699</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
-        <v>714</v>
+        <v>624</v>
       </c>
       <c r="B221" s="1">
         <v>16964399491504.801</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>715</v>
+        <v>625</v>
       </c>
       <c r="B222" s="1">
         <v>17288464870005</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
-        <v>716</v>
+        <v>626</v>
       </c>
       <c r="B223" s="1">
         <v>16593317962605.4</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>717</v>
+        <v>627</v>
       </c>
       <c r="B224" s="1">
         <v>17107617503659.801</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
-        <v>718</v>
+        <v>628</v>
       </c>
       <c r="B225" s="1">
         <v>17199503460186.4</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>719</v>
+        <v>629</v>
       </c>
       <c r="B226" s="1">
         <v>17726315575468.898</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>720</v>
+        <v>630</v>
       </c>
       <c r="B227" s="1">
         <v>17406995064233.9</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>721</v>
+        <v>631</v>
       </c>
       <c r="B228" s="1">
         <v>17183209344331.6</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
-        <v>722</v>
+        <v>632</v>
       </c>
       <c r="B229" s="1">
         <v>17042458181786.801</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>723</v>
+        <v>633</v>
       </c>
       <c r="B230" s="1">
         <v>16934078378212.801</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
-        <v>724</v>
+        <v>634</v>
       </c>
       <c r="B231" s="1">
         <v>17602270597318.602</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>725</v>
+        <v>635</v>
       </c>
       <c r="B232" s="1">
         <v>17220819141525.199</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
-        <v>726</v>
+        <v>636</v>
       </c>
       <c r="B233" s="1">
         <v>17066612802444.1</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
-        <v>727</v>
+        <v>637</v>
       </c>
       <c r="B234" s="1">
         <v>18021307803298.5</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
-        <v>728</v>
+        <v>638</v>
       </c>
       <c r="B235" s="1">
         <v>17024681281499.6</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
-        <v>729</v>
+        <v>639</v>
       </c>
       <c r="B236" s="1">
         <v>17739066302270</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
-        <v>730</v>
+        <v>640</v>
       </c>
       <c r="B237" s="1">
         <v>17591832717064</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
-        <v>731</v>
+        <v>641</v>
       </c>
       <c r="B238" s="1">
         <v>17331350808712.801</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
-        <v>732</v>
+        <v>642</v>
       </c>
       <c r="B239" s="1">
         <v>17356576556637.699</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
-        <v>733</v>
+        <v>643</v>
       </c>
       <c r="B240" s="1">
         <v>17710241477999.199</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
-        <v>734</v>
+        <v>644</v>
       </c>
       <c r="B241" s="1">
         <v>17246094908847.5</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
-        <v>735</v>
+        <v>645</v>
       </c>
       <c r="B242" s="1">
         <v>18399711393820.602</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
-        <v>736</v>
+        <v>646</v>
       </c>
       <c r="B243" s="1">
         <v>17870181125900.199</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
-        <v>737</v>
+        <v>647</v>
       </c>
       <c r="B244" s="1">
         <v>18078650913664.102</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
-        <v>738</v>
+        <v>648</v>
       </c>
       <c r="B245" s="1">
         <v>18172486974774.199</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>739</v>
+        <v>649</v>
       </c>
       <c r="B246" s="1">
         <v>17832230627184</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
-        <v>740</v>
+        <v>650</v>
       </c>
       <c r="B247" s="1">
         <v>18031989054315.301</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
-        <v>741</v>
+        <v>651</v>
       </c>
       <c r="B248" s="1">
         <v>17913879097419.898</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
-        <v>742</v>
+        <v>652</v>
       </c>
       <c r="B249" s="1">
         <v>17877910492509.5</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
-        <v>743</v>
+        <v>653</v>
       </c>
       <c r="B250" s="1">
         <v>18106923605621.5</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
-        <v>744</v>
+        <v>654</v>
       </c>
       <c r="B251" s="1">
         <v>16970546204388.1</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>493</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
